--- a/betas_table.xlsx
+++ b/betas_table.xlsx
@@ -13,7 +13,412 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
   <si>
     <t>Factor</t>
   </si>
@@ -98,27 +503,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="B2" s="0">
         <v>5.1968683363364994</v>
@@ -138,7 +543,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="B3" s="0">
         <v>-2.3661548958344398</v>
@@ -158,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="B4" s="0">
         <v>-2.6359945471794326</v>

--- a/betas_table.xlsx
+++ b/betas_table.xlsx
@@ -1,19 +1,6263 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e6e6328e2e15654/Documents/PhD/PhD/First/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_714D87B70A6E148C728D4BC5E4012D16618A8BA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2AE182E-4830-4EEB-B7DF-5CFE29951627}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="2223">
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Satndard Deviation</t>
+  </si>
+  <si>
+    <t>ADF test p-value</t>
+  </si>
   <si>
     <t>Factor</t>
   </si>
@@ -450,8 +6694,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -485,88 +6729,433 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" id="1" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="false" mc:Ignorable="xr xr3" xr:uid="{5A068913-24B3-4C41-8E0D-5EF203D28129}">
+  <autoFilter ref="A1:F4" xr:uid="{5A068913-24B3-4C41-8E0D-5EF203D28129}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Factor" xr3:uid="{C50028EB-3A6D-4452-8620-F59C1E598429}"/>
+    <tableColumn id="2" name="Mean" xr3:uid="{5045795D-D707-48AA-AF1E-D8E8F997B219}"/>
+    <tableColumn id="3" name="Minimum" xr3:uid="{B7F64E2C-7F4A-431F-85AB-1A59A81461AB}"/>
+    <tableColumn id="4" name="Maximum" xr3:uid="{05D90294-F3AA-449D-A089-8C6C41F6DB5C}"/>
+    <tableColumn id="5" name="Satndard Deviation" xr3:uid="{DA313290-A5CF-4CDC-9962-91A0767C9098}"/>
+    <tableColumn id="6" name="ADF test p-value" xr3:uid="{CB6969F1-42BE-4FE6-BDE5-00E0C3307B6A}"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.37890625" customWidth="true"/>
-    <col min="3" max="3" width="12.37890625" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="16.6015625" customWidth="true"/>
     <col min="6" max="6" width="14.37890625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="0" t="s">
-        <v>135</v>
+        <v>2214</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>139</v>
+        <v>2218</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>140</v>
+        <v>2219</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>141</v>
+        <v>2220</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>142</v>
+        <v>2221</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>143</v>
+        <v>2222</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0" t="s">
-        <v>136</v>
+        <v>2215</v>
       </c>
       <c r="B2" s="0">
-        <v>5.1968683363364994</v>
+        <v>4.2362776500257819</v>
       </c>
       <c r="C2" s="0">
         <v>1.1543564627550975</v>
       </c>
       <c r="D2" s="0">
-        <v>9.5482586965415965</v>
+        <v>6.56735805783239</v>
       </c>
       <c r="E2" s="0">
-        <v>2.0500790059169547</v>
+        <v>1.3721236001779922</v>
       </c>
       <c r="F2" s="0">
-        <v>0.088776209011255269</v>
+        <v>0.22752915899658649</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="0" t="s">
-        <v>137</v>
+        <v>2216</v>
       </c>
       <c r="B3" s="0">
-        <v>-2.3661548958344398</v>
+        <v>-2.2848773547898142</v>
       </c>
       <c r="C3" s="0">
-        <v>-5.7854871034103121</v>
+        <v>-5.4117956397126257</v>
       </c>
       <c r="D3" s="0">
         <v>0.78513655083951994</v>
       </c>
       <c r="E3" s="0">
-        <v>1.6248712472023128</v>
+        <v>1.5983670447231764</v>
       </c>
       <c r="F3" s="0">
-        <v>0.2162304748402975</v>
+        <v>0.26171846080472511</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" s="0" t="s">
-        <v>138</v>
+        <v>2217</v>
       </c>
       <c r="B4" s="0">
-        <v>-2.6359945471794326</v>
+        <v>-3.103382071154325</v>
       </c>
       <c r="C4" s="0">
         <v>-9.0087544270587205</v>
@@ -575,12 +7164,16 @@
         <v>3.6952557708396085</v>
       </c>
       <c r="E4" s="0">
-        <v>2.6407392137729784</v>
+        <v>2.6543268438068286</v>
       </c>
       <c r="F4" s="0">
-        <v>0.025188492163073159</v>
+        <v>0.10779859009423742</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>